--- a/Tabla Enfermedades Videojuegos.xlsx
+++ b/Tabla Enfermedades Videojuegos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSullivan\Documents\Uni\5o\TFG-Videojuegos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042A8270-5072-40CE-AFEA-DE348A23FF56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026672D7-17EA-47A2-9AF1-200699333CCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22890" yWindow="2600" windowWidth="14740" windowHeight="18010" xr2:uid="{17789BE4-A8E4-4BC1-9B73-269AE911A6B3}"/>
+    <workbookView xWindow="-370" yWindow="2370" windowWidth="29460" windowHeight="18010" xr2:uid="{17789BE4-A8E4-4BC1-9B73-269AE911A6B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$J$2:$N$57</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="196">
   <si>
     <t>Juego</t>
   </si>
@@ -616,6 +619,12 @@
   </si>
   <si>
     <t>Hay puzles que reflejan síntomas de ansiedad y depresión, son todo metáforas que podrían ser interpretadas. Habla con un NPC sobre lidiar con el estrés y cómo podría ayudar a su salud mental. Se personifica en un personaje con su enfermedad y problemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Killer7</t>
+  </si>
+  <si>
+    <t>Fractured Minds</t>
   </si>
 </sst>
 </file>
@@ -639,7 +648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +658,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -691,6 +706,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1007,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60941C3E-D270-4684-9D4A-946D7454566E}">
-  <dimension ref="B2:F63"/>
+  <dimension ref="B2:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,9 +1045,14 @@
     <col min="4" max="4" width="26.7265625" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
     <col min="6" max="6" width="57.90625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="12" max="12" width="25.1796875" customWidth="1"/>
+    <col min="13" max="13" width="22.6328125" customWidth="1"/>
+    <col min="14" max="14" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,8 +1068,23 @@
       <c r="F2" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1049,8 +1094,21 @@
       <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1988</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1066,8 +1124,23 @@
       <c r="F4" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1990</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1076,8 +1149,21 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:6" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1996</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1093,8 +1179,23 @@
       <c r="F6" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1997</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="58" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1104,8 +1205,21 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1998</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:14" ht="87" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1121,8 +1235,23 @@
       <c r="F8" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1998</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1132,8 +1261,23 @@
       <c r="D9" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1999</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1287,17 @@
       <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="J10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1154,8 +1307,21 @@
       <c r="D11" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2001</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="145" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1165,8 +1331,23 @@
       <c r="D12" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="J12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2001</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="87" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1176,8 +1357,23 @@
       <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2002</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1193,8 +1389,23 @@
       <c r="F14" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2004</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="116" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1207,8 +1418,23 @@
       <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="J15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2005</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1224,8 +1450,19 @@
       <c r="F16" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2007</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1238,8 +1475,23 @@
       <c r="E17" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2007</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1255,8 +1507,23 @@
       <c r="F18" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2008</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="333.5" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1272,8 +1539,23 @@
       <c r="F19" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="J19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2009</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1289,8 +1571,23 @@
       <c r="F20" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2009</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="174" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1306,8 +1603,23 @@
       <c r="F21" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2011</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
@@ -1323,8 +1635,21 @@
       <c r="F22" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="J22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2011</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="2:14" ht="391.5" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
@@ -1340,8 +1665,23 @@
       <c r="F23" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="J23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2012</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -1357,8 +1697,23 @@
       <c r="F24" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2012</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1371,8 +1726,19 @@
       <c r="E25" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2013</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14" ht="58" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,8 +1754,19 @@
       <c r="F26" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="J26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2013</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14" ht="87" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1405,8 +1782,23 @@
       <c r="F27" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="J27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2013</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1419,8 +1811,23 @@
       <c r="E28" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2014</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="87" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1433,8 +1840,23 @@
       <c r="F29" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="J29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2014</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1447,8 +1869,23 @@
       <c r="E30" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2014</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="87" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1901,23 @@
       <c r="F31" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="J31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2014</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="29" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1478,8 +1930,17 @@
       <c r="E32" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="J32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="2:15" ht="87" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
@@ -1495,8 +1956,19 @@
       <c r="F33" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="J33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" ht="145" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1512,8 +1984,23 @@
       <c r="F34" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
@@ -1529,8 +2016,23 @@
       <c r="F35" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1546,8 +2048,23 @@
       <c r="F36" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="J36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
@@ -1563,8 +2080,23 @@
       <c r="F37" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="J37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
@@ -1580,8 +2112,23 @@
       <c r="F38" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="J38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>137</v>
       </c>
@@ -1597,8 +2144,23 @@
       <c r="F39" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1614,8 +2176,23 @@
       <c r="F40" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1631,8 +2208,23 @@
       <c r="F41" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="J41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,8 +2240,25 @@
       <c r="F42" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="I42" s="9"/>
+      <c r="J42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="10">
+        <v>2016</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="2:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>34</v>
       </c>
@@ -1665,8 +2274,23 @@
       <c r="F43" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="J43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>48</v>
       </c>
@@ -1682,8 +2306,23 @@
       <c r="F44" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="J44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="246.5" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1699,8 +2338,23 @@
       <c r="F45" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="J45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="232" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>158</v>
       </c>
@@ -1716,8 +2370,23 @@
       <c r="F46" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="J46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>43</v>
       </c>
@@ -1733,8 +2402,21 @@
       <c r="F47" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" ht="87" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>37</v>
       </c>
@@ -1750,8 +2432,23 @@
       <c r="F48" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="116" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
         <v>38</v>
       </c>
@@ -1767,8 +2464,23 @@
       <c r="F49" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="J49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="116" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1784,8 +2496,19 @@
       <c r="F50" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="J50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="2:14" ht="333.5" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
         <v>40</v>
       </c>
@@ -1801,8 +2524,21 @@
       <c r="F51" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="J51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
@@ -1815,8 +2551,23 @@
       <c r="F52" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="232" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
@@ -1832,8 +2583,23 @@
       <c r="F53" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="J53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="87" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>182</v>
       </c>
@@ -1849,8 +2615,21 @@
       <c r="F54" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="174" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1866,8 +2645,23 @@
       <c r="F55" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="J55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2019</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="58" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>160</v>
       </c>
@@ -1883,8 +2677,23 @@
       <c r="F56" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="J56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="145" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>178</v>
       </c>
@@ -1900,13 +2709,29 @@
       <c r="F57" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="63" spans="2:14" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B63" s="8" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J2:N57" xr:uid="{BC7CAD5C-F71B-4F30-A94F-EE8F2E6E8626}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:N57">
+      <sortCondition ref="K3:K57"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F55">
     <sortCondition ref="B3:B55"/>
   </sortState>
@@ -1917,8 +2742,14 @@
     <hyperlink ref="F35" r:id="rId4" display="https://en.wikipedia.org/wiki/Life_Is_Strange" xr:uid="{378FAB3F-D3C1-468B-B26F-8E4A0195A3BC}"/>
     <hyperlink ref="F47" r:id="rId5" xr:uid="{4EFB1793-6457-4AB3-AF58-95C6D8217F58}"/>
     <hyperlink ref="F53" r:id="rId6" xr:uid="{6F9DD1F3-2CF0-4BD6-B0DD-CF09681769C6}"/>
+    <hyperlink ref="N21" r:id="rId7" display="https://www.ea.com/games/alice" xr:uid="{3D24D7FF-2925-4370-A410-BE43BADCA886}"/>
+    <hyperlink ref="N19" r:id="rId8" display="https://en.wikipedia.org/wiki/Arkham_Asylum;  " xr:uid="{02A7DDE0-FDE8-40F4-A507-09D35DD6D30E}"/>
+    <hyperlink ref="N13" r:id="rId9" xr:uid="{BFF2E44A-48C7-47C0-A395-A65DE3C27806}"/>
+    <hyperlink ref="N53" r:id="rId10" display="https://en.wikipedia.org/wiki/Life_Is_Strange" xr:uid="{87F9A5FE-9914-424B-BB26-7D34332E797E}"/>
+    <hyperlink ref="N37" r:id="rId11" xr:uid="{E0E01060-2A0C-4062-968C-CADEEAA9A04A}"/>
+    <hyperlink ref="N14" r:id="rId12" xr:uid="{17087268-273E-48AC-8B6D-81123D621437}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>